--- a/resources/data-definition/CDS/SequenceMetadata_DD.xlsx
+++ b/resources/data-definition/CDS/SequenceMetadata_DD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gup2/workspace/vscode/crdcdh/crdc-datahub-backend/resources/data-definition/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76AD131A-5AE1-F44C-B026-60250C5AF939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA1EB0A-0825-1349-858B-C1B15BF5A0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{AEAC21EE-7DE2-1E44-9763-766B48030474}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -556,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -567,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -578,12 +578,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -594,12 +594,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -610,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -654,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -665,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -676,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -687,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -698,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>

--- a/resources/data-definition/CDS/SequenceMetadata_DD.xlsx
+++ b/resources/data-definition/CDS/SequenceMetadata_DD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gup2/workspace/vscode/crdcdh/crdc-datahub-backend/resources/data-definition/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA1EB0A-0825-1349-858B-C1B15BF5A0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6915F06-6CAB-F544-B1A9-5E1F9BDCBAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{AEAC21EE-7DE2-1E44-9763-766B48030474}"/>
   </bookViews>
@@ -59,15 +59,9 @@
     <t>string</t>
   </si>
   <si>
-    <t>sample_ID</t>
-  </si>
-  <si>
     <t>A unique sequence of alphanumeric characters used to identify the specimen at it's point of origin.</t>
   </si>
   <si>
-    <t>library_ID</t>
-  </si>
-  <si>
     <t>A short unique identifier assigned to a nucleotide sequencing library.</t>
   </si>
   <si>
@@ -119,28 +113,34 @@
     <t>One or more characters used to identify the published NCBI genetic sequence that is used as a reference against which other sequences are compared.</t>
   </si>
   <si>
-    <t>alignemnt_software</t>
-  </si>
-  <si>
     <t>The name of the software program used to align nucleotide sequencing data.</t>
   </si>
   <si>
-    <t>filetype</t>
-  </si>
-  <si>
     <t>A defined organization or layout representing and structuring data in a computer file.</t>
   </si>
   <si>
-    <t>filename</t>
-  </si>
-  <si>
     <t>The literal label for an electronic data file.</t>
   </si>
   <si>
-    <t>MD5_checksum</t>
-  </si>
-  <si>
     <t>A 32-character hexadecimal number that is computed on a file.</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>library_id</t>
+  </si>
+  <si>
+    <t>sequence_alignment_software</t>
+  </si>
+  <si>
+    <t>file_type</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>md5sum</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,10 +558,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -569,10 +569,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -580,15 +580,15 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -596,15 +596,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -623,10 +623,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -645,10 +645,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -656,10 +656,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -689,10 +689,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
